--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBE9B2F-D819-4F7F-AE2E-6E84C2B2A1DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B73456-2C74-4FDB-B655-A15B28F1A381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="0" windowWidth="18855" windowHeight="11520" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="18855" windowHeight="11520" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E12DA-C847-475D-917E-A98794A15607}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,6 +425,39 @@
       <c r="A3" s="1">
         <v>44217</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44219</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44220</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B73456-2C74-4FDB-B655-A15B28F1A381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACFAFBA-A67D-4217-A5AF-D14826B63737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="0" windowWidth="18855" windowHeight="11520" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="15375" windowHeight="8325" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,6 +458,12 @@
       <c r="A6" s="1">
         <v>44220</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACFAFBA-A67D-4217-A5AF-D14826B63737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E400822-1991-4858-AB08-7AD79FE267BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="15375" windowHeight="8325" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E12DA-C847-475D-917E-A98794A15607}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,6 +465,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44222</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harvey\Github\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E400822-1991-4858-AB08-7AD79FE267BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81015AB5-E860-42FE-8B28-EDE9D1D872C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
+    <workbookView xWindow="369" yWindow="2897" windowWidth="21780" windowHeight="14700" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -391,18 +391,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E12DA-C847-475D-917E-A98794A15607}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>44216</v>
       </c>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>44217</v>
       </c>
@@ -432,7 +432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>44218</v>
       </c>
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>44219</v>
       </c>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>44220</v>
       </c>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>44221</v>
       </c>
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>44222</v>
       </c>
@@ -485,6 +485,83 @@
       </c>
       <c r="C8">
         <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>44224</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>44229</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harvey\Github\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81015AB5-E860-42FE-8B28-EDE9D1D872C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6366CE68-4FFA-4510-A9B5-0CE702EE0E7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="369" yWindow="2897" windowWidth="21780" windowHeight="14700" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
+    <workbookView xWindow="26" yWindow="2554" windowWidth="21780" windowHeight="14700" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E12DA-C847-475D-917E-A98794A15607}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -564,6 +564,39 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>44230</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>44231</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>44232</v>
+      </c>
+      <c r="B18">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harvey\Github\personal-goals\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6366CE68-4FFA-4510-A9B5-0CE702EE0E7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B7E5CE-561A-4AB4-8592-004BDEBC6C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26" yWindow="2554" windowWidth="21780" windowHeight="14700" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="28800" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -391,18 +391,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E12DA-C847-475D-917E-A98794A15607}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44216</v>
       </c>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44217</v>
       </c>
@@ -432,7 +432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44218</v>
       </c>
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44219</v>
       </c>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44220</v>
       </c>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44221</v>
       </c>
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44222</v>
       </c>
@@ -487,7 +487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44223</v>
       </c>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44224</v>
       </c>
@@ -509,7 +509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44225</v>
       </c>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44226</v>
       </c>
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44227</v>
       </c>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44228</v>
       </c>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44229</v>
       </c>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44230</v>
       </c>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44231</v>
       </c>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44232</v>
       </c>
@@ -594,6 +594,39 @@
         <v>24</v>
       </c>
       <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44233</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44234</v>
+      </c>
+      <c r="B20">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44235</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
         <v>0</v>
       </c>
     </row>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B7E5CE-561A-4AB4-8592-004BDEBC6C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37C8E1A-E48C-437F-AD5F-14FE97637D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="28800" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,10 +624,10 @@
         <v>44235</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37C8E1A-E48C-437F-AD5F-14FE97637D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1754E78-D017-49B3-BF03-3DA4F6DA5314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="28800" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="28800" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E12DA-C847-475D-917E-A98794A15607}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,6 +630,28 @@
         <v>45</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44236</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44237</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1754E78-D017-49B3-BF03-3DA4F6DA5314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30E5190-BAF5-4248-B80E-1FC0AD605EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3810" yWindow="3810" windowWidth="28800" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E12DA-C847-475D-917E-A98794A15607}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +652,28 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44238</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44239</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harvey\Github\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30E5190-BAF5-4248-B80E-1FC0AD605EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D619D01-4B01-4108-8A4D-A33238E2BE14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="28800" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
+    <workbookView xWindow="63960" yWindow="-870" windowWidth="24690" windowHeight="15930" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>chinups</t>
   </si>
   <si>
     <t>pushups</t>
+  </si>
+  <si>
+    <t>v-crunch</t>
+  </si>
+  <si>
+    <t>penguins</t>
+  </si>
+  <si>
+    <t>shrugs</t>
   </si>
 </sst>
 </file>
@@ -391,26 +400,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E12DA-C847-475D-917E-A98794A15607}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>44216</v>
       </c>
@@ -420,8 +438,17 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>44217</v>
       </c>
@@ -431,8 +458,17 @@
       <c r="C3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>44218</v>
       </c>
@@ -442,8 +478,17 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>44219</v>
       </c>
@@ -453,8 +498,17 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>44220</v>
       </c>
@@ -464,8 +518,17 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>44221</v>
       </c>
@@ -475,8 +538,17 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>44222</v>
       </c>
@@ -486,8 +558,17 @@
       <c r="C8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>44223</v>
       </c>
@@ -497,8 +578,17 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>44224</v>
       </c>
@@ -508,8 +598,17 @@
       <c r="C10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>44225</v>
       </c>
@@ -519,8 +618,17 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>44226</v>
       </c>
@@ -530,8 +638,17 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>44227</v>
       </c>
@@ -541,8 +658,17 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>44228</v>
       </c>
@@ -552,8 +678,17 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>44229</v>
       </c>
@@ -563,8 +698,17 @@
       <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>44230</v>
       </c>
@@ -574,8 +718,17 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>44231</v>
       </c>
@@ -585,8 +738,17 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>44232</v>
       </c>
@@ -596,8 +758,17 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>44233</v>
       </c>
@@ -607,8 +778,17 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>44234</v>
       </c>
@@ -618,8 +798,17 @@
       <c r="C20">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>44235</v>
       </c>
@@ -629,8 +818,17 @@
       <c r="C21">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>44236</v>
       </c>
@@ -640,8 +838,17 @@
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>44237</v>
       </c>
@@ -651,8 +858,17 @@
       <c r="C23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>44238</v>
       </c>
@@ -662,8 +878,17 @@
       <c r="C24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>44239</v>
       </c>
@@ -672,6 +897,35 @@
       </c>
       <c r="C25">
         <v>45</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>44240</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>35</v>
+      </c>
+      <c r="F26">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harvey\Github\personal-goals\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D619D01-4B01-4108-8A4D-A33238E2BE14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C27A614-7DFE-4BE2-91E6-5DE6C2D435EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63960" yWindow="-870" windowWidth="24690" windowHeight="15930" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="28800" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,18 +400,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E12DA-C847-475D-917E-A98794A15607}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44216</v>
       </c>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44217</v>
       </c>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44218</v>
       </c>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44219</v>
       </c>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44220</v>
       </c>
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44221</v>
       </c>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44222</v>
       </c>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44223</v>
       </c>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44224</v>
       </c>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44225</v>
       </c>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44226</v>
       </c>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44227</v>
       </c>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44228</v>
       </c>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44229</v>
       </c>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44230</v>
       </c>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44231</v>
       </c>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44232</v>
       </c>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44233</v>
       </c>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44234</v>
       </c>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44235</v>
       </c>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44236</v>
       </c>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44237</v>
       </c>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44238</v>
       </c>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44239</v>
       </c>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44240</v>
       </c>
@@ -926,6 +926,66 @@
       </c>
       <c r="F26">
         <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44241</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44242</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44243</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C27A614-7DFE-4BE2-91E6-5DE6C2D435EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC12281F-39B9-418D-8EB2-25CD7E8F65A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="28800" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="28800" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E12DA-C847-475D-917E-A98794A15607}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,6 +988,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44244</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>40</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>40</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC12281F-39B9-418D-8EB2-25CD7E8F65A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985DAF70-9711-4946-801D-91506F0CE3AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="28800" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="8325" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E12DA-C847-475D-917E-A98794A15607}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,6 +1028,66 @@
         <v>50</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B34">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985DAF70-9711-4946-801D-91506F0CE3AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1438B44A-47B3-4B46-A85D-538D405420D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="8325" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E12DA-C847-475D-917E-A98794A15607}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,6 +1088,66 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B35">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B37">
+        <v>48</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1438B44A-47B3-4B46-A85D-538D405420D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BFC487-1344-4141-9509-A8CBC388BE1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>chinups</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>shrugs</t>
+  </si>
+  <si>
+    <t>curls</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E12DA-C847-475D-917E-A98794A15607}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +414,7 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -427,8 +430,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44216</v>
       </c>
@@ -447,8 +453,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44217</v>
       </c>
@@ -467,8 +476,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44218</v>
       </c>
@@ -487,8 +499,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44219</v>
       </c>
@@ -507,8 +522,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44220</v>
       </c>
@@ -527,8 +545,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44221</v>
       </c>
@@ -547,8 +568,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44222</v>
       </c>
@@ -567,8 +591,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44223</v>
       </c>
@@ -587,8 +614,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44224</v>
       </c>
@@ -607,8 +637,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44225</v>
       </c>
@@ -627,8 +660,11 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44226</v>
       </c>
@@ -647,8 +683,11 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44227</v>
       </c>
@@ -667,8 +706,11 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44228</v>
       </c>
@@ -687,8 +729,11 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44229</v>
       </c>
@@ -707,8 +752,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44230</v>
       </c>
@@ -727,8 +775,11 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44231</v>
       </c>
@@ -747,8 +798,11 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44232</v>
       </c>
@@ -767,8 +821,11 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44233</v>
       </c>
@@ -787,8 +844,11 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44234</v>
       </c>
@@ -807,8 +867,11 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44235</v>
       </c>
@@ -827,8 +890,11 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44236</v>
       </c>
@@ -847,8 +913,11 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44237</v>
       </c>
@@ -867,8 +936,11 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44238</v>
       </c>
@@ -887,8 +959,11 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44239</v>
       </c>
@@ -907,8 +982,11 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44240</v>
       </c>
@@ -927,8 +1005,11 @@
       <c r="F26">
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44241</v>
       </c>
@@ -947,8 +1028,11 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44242</v>
       </c>
@@ -967,8 +1051,11 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44243</v>
       </c>
@@ -987,8 +1074,11 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44244</v>
       </c>
@@ -1007,8 +1097,11 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44245</v>
       </c>
@@ -1027,8 +1120,11 @@
       <c r="F31">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44246</v>
       </c>
@@ -1047,8 +1143,11 @@
       <c r="F32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44247</v>
       </c>
@@ -1067,8 +1166,11 @@
       <c r="F33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44248</v>
       </c>
@@ -1087,8 +1189,11 @@
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44249</v>
       </c>
@@ -1107,8 +1212,11 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44250</v>
       </c>
@@ -1127,8 +1235,11 @@
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44251</v>
       </c>
@@ -1146,6 +1257,32 @@
       </c>
       <c r="F37">
         <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BFC487-1344-4141-9509-A8CBC388BE1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBC4237-9B10-49EA-A44A-D53B434E6949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
+    <workbookView xWindow="2340" yWindow="60" windowWidth="15375" windowHeight="10605" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E12DA-C847-475D-917E-A98794A15607}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,6 +1285,75 @@
         <v>32</v>
       </c>
     </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B40">
+        <v>60</v>
+      </c>
+      <c r="C40">
+        <v>45</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B41">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBC4237-9B10-49EA-A44A-D53B434E6949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B8733F-8E4B-4ED2-8B54-1B3A3AB948D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="60" windowWidth="15375" windowHeight="10605" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
+    <workbookView xWindow="-15540" yWindow="-10395" windowWidth="10980" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E12DA-C847-475D-917E-A98794A15607}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,6 +1354,190 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44257</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B44">
+        <v>24</v>
+      </c>
+      <c r="C44">
+        <v>30</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44261</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44262</v>
+      </c>
+      <c r="B48">
+        <v>24</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B49">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>30</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B8733F-8E4B-4ED2-8B54-1B3A3AB948D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAFAA0D-B432-46FE-90AA-F4D1C32DF051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15540" yWindow="-10395" windowWidth="10980" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
+    <workbookView xWindow="-16335" yWindow="5235" windowWidth="10980" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E12DA-C847-475D-917E-A98794A15607}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,6 +1538,75 @@
         <v>0</v>
       </c>
     </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44265</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44266</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAFAA0D-B432-46FE-90AA-F4D1C32DF051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E464A60A-C828-43EF-89FD-3BF7AEBCE267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16335" yWindow="5235" windowWidth="10980" windowHeight="15885" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
+    <workbookView xWindow="14175" yWindow="5850" windowWidth="16950" windowHeight="15030" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E12DA-C847-475D-917E-A98794A15607}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,6 +1607,98 @@
         <v>0</v>
       </c>
     </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44267</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44268</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>44269</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44270</v>
+      </c>
+      <c r="B56">
+        <v>60</v>
+      </c>
+      <c r="C56">
+        <v>45</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>30</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E464A60A-C828-43EF-89FD-3BF7AEBCE267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DC7A6B-46A2-4D46-B01D-7D22EDB502E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14175" yWindow="5850" windowWidth="16950" windowHeight="15030" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
+    <workbookView xWindow="18930" yWindow="5295" windowWidth="16950" windowHeight="15030" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E12DA-C847-475D-917E-A98794A15607}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+      <selection activeCell="B57" sqref="B57:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,6 +1699,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44271</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44272</v>
+      </c>
+      <c r="B58">
+        <v>36</v>
+      </c>
+      <c r="C58">
+        <v>45</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>45</v>
+      </c>
+      <c r="F58">
+        <v>150</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw/weights.xlsx
+++ b/data/raw/weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab737\GitHub\personal-goals\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DC7A6B-46A2-4D46-B01D-7D22EDB502E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A52D5D-A5E9-40D2-BAB4-EF80200486EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18930" yWindow="5295" windowWidth="16950" windowHeight="15030" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
+    <workbookView xWindow="13830" yWindow="5985" windowWidth="16950" windowHeight="13005" xr2:uid="{6673F513-5FF6-4B04-9025-EC09F1BEA076}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947E12DA-C847-475D-917E-A98794A15607}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:G57"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,6 +1745,489 @@
         <v>0</v>
       </c>
     </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44273</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>44274</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>44275</v>
+      </c>
+      <c r="B61">
+        <v>24</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>44276</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>44278</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>44279</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>44280</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44281</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44282</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>44283</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>44284</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>44285</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>44288</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>44291</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B78">
+        <v>22</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>44293</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
